--- a/Progresos/Junio 2020/Calculos auxiliares-Opciones.xlsx
+++ b/Progresos/Junio 2020/Calculos auxiliares-Opciones.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="COMPARACION ACCIONES Y OPCIONES" sheetId="2" r:id="rId2"/>
+    <sheet name="COMPRA OPCIONES CALL" sheetId="3" r:id="rId3"/>
+    <sheet name="COMPRA OPCIONES PUT" sheetId="4" r:id="rId4"/>
+    <sheet name="OPTIONSTATIONPRO" sheetId="5" r:id="rId5"/>
+    <sheet name="GRAFICO DE LA PRIMA" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>SIMBOLO</t>
   </si>
@@ -64,13 +67,124 @@
   </si>
   <si>
     <t>Antes de 15 de mayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En síntesis, exponencial el crecimiento en opciones. Más que en las acciones. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo que tengo que ver es cómo funcionan las opciones call en trade station. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio del Activo: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio de la seña: </t>
+  </si>
+  <si>
+    <t>Si subió al cabo de un mes…</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Precio del Activo</t>
+  </si>
+  <si>
+    <t>P+X</t>
+  </si>
+  <si>
+    <t>Precio de la seña</t>
+  </si>
+  <si>
+    <t>S+X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sea que la seña, por más que </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pagamos menos que el valor del </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activo real, subió exactamente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el mismo monto que el </t>
+  </si>
+  <si>
+    <t>activo!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poco antes del 54:02 Habla el orden en que se va a entrar, mirar primero el volumen, desúes open interest parece, luego delta y al final se filtra todo. </t>
+  </si>
+  <si>
+    <t>Las columnas, Mirza tiene así</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
+  <si>
+    <t>Net%Chg</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Bid</t>
+  </si>
+  <si>
+    <t>Ask</t>
+  </si>
+  <si>
+    <t>Extraído de: https://www.youtube.com/watch?v=DglImptli5E</t>
+  </si>
+  <si>
+    <t>Extraído de https://www.youtube.com/watch?v=Vb0wHFbLDGo&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algo importante que veo la manera en que Mirza está operando. Muestra 3 marcos de tiempo: Semanal, diario y 60 min no 240 min como yo estaba observando. </t>
+  </si>
+  <si>
+    <t>OJO</t>
+  </si>
+  <si>
+    <t>Dónde ver?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ella solo compra IN THE MONEY O OUT THE MONEY (o arot de money). No at the money. Porque es mita mita no sé que. </t>
+  </si>
+  <si>
+    <t>Primero la fecha</t>
+  </si>
+  <si>
+    <t>Activos con volumen alto</t>
+  </si>
+  <si>
+    <t>A la hora de mirar y reconocer un trade, para ver El orden es</t>
+  </si>
+  <si>
+    <t>Open interes alto. Ahí ya nos reduce, nos filtra la búsqueda</t>
+  </si>
+  <si>
+    <t>El delta que nos convenga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y los strike podemos elegir cualquiera, si hay más de uno. </t>
+  </si>
+  <si>
+    <t>SPREAD: Comienza en el minuto 55:36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +192,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,9 +227,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,6 +244,192 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>230814</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="334822"/>
+          <a:ext cx="12422814" cy="6399353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="342900"/>
+          <a:ext cx="10058400" cy="4042765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4953000"/>
+          <a:ext cx="10058400" cy="5362339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>83699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="3 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10668000"/>
+          <a:ext cx="10058400" cy="5227199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -475,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <f>D4*100*E4</f>
+        <f t="shared" ref="I4:I9" si="0">D4*100*E4</f>
         <v>3270.0000000000005</v>
       </c>
     </row>
@@ -496,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <f>D5*100*E5</f>
+        <f t="shared" si="0"/>
         <v>3400</v>
       </c>
     </row>
@@ -511,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <f>D6*100*E6</f>
+        <f t="shared" si="0"/>
         <v>5925</v>
       </c>
       <c r="M6" t="s">
@@ -532,7 +848,7 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <f>D7*100*E7</f>
+        <f t="shared" si="0"/>
         <v>5975</v>
       </c>
     </row>
@@ -547,7 +863,7 @@
         <v>10</v>
       </c>
       <c r="I8">
-        <f>D8*100*E8</f>
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
     </row>
@@ -562,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <f>D9*100*E9</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -596,24 +912,274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S79" sqref="S79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>